--- a/data/trans_orig/P41C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D1C2876-64C7-4E26-9B8F-679758A970C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A1D6FC-F828-4711-A1E3-1D62E334ACCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D03FA1A-7AE8-4AED-911F-0C59C30D609A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF63D1A0-6BF5-4716-A0C4-ECF62EBCED55}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,73 +104,73 @@
     <t>100%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -179,109 +179,109 @@
     <t>6,68%</t>
   </si>
   <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19EC0F8-DBF5-47AF-BCE3-39F4D4EAF00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068C2DE6-1608-4A18-96CD-C99F850A35BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1302</v>
+        <v>1249</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1302</v>
+        <v>1249</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -868,7 +868,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>48866</v>
+        <v>48320</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -883,7 +883,7 @@
         <v>67</v>
       </c>
       <c r="I5" s="7">
-        <v>46697</v>
+        <v>42463</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -898,7 +898,7 @@
         <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>95563</v>
+        <v>90783</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>48866</v>
+        <v>48320</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="I6" s="7">
-        <v>47999</v>
+        <v>43712</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -949,7 +949,7 @@
         <v>117</v>
       </c>
       <c r="N6" s="7">
-        <v>96865</v>
+        <v>92032</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -972,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>16737</v>
+        <v>15937</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -987,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>13949</v>
+        <v>12815</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>30686</v>
+        <v>28752</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1023,7 +1023,7 @@
         <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>475913</v>
+        <v>657094</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1038,7 +1038,7 @@
         <v>662</v>
       </c>
       <c r="I8" s="7">
-        <v>495791</v>
+        <v>455879</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1053,7 +1053,7 @@
         <v>1042</v>
       </c>
       <c r="N8" s="7">
-        <v>971704</v>
+        <v>1112973</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1074,7 +1074,7 @@
         <v>395</v>
       </c>
       <c r="D9" s="7">
-        <v>492650</v>
+        <v>673031</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1089,7 +1089,7 @@
         <v>682</v>
       </c>
       <c r="I9" s="7">
-        <v>509740</v>
+        <v>468694</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1104,7 +1104,7 @@
         <v>1077</v>
       </c>
       <c r="N9" s="7">
-        <v>1002390</v>
+        <v>1141725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1127,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>11042</v>
+        <v>10555</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1142,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>16806</v>
+        <v>15374</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1157,7 +1157,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>27848</v>
+        <v>25928</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1178,7 +1178,7 @@
         <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>154370</v>
+        <v>147351</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1193,7 +1193,7 @@
         <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>180567</v>
+        <v>167499</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1208,7 +1208,7 @@
         <v>377</v>
       </c>
       <c r="N11" s="7">
-        <v>334938</v>
+        <v>314850</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1229,7 +1229,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="7">
-        <v>165412</v>
+        <v>157906</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>262</v>
       </c>
       <c r="I12" s="7">
-        <v>197373</v>
+        <v>182873</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1259,7 +1259,7 @@
         <v>405</v>
       </c>
       <c r="N12" s="7">
-        <v>362786</v>
+        <v>340778</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1282,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>27780</v>
+        <v>26491</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -1297,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>32057</v>
+        <v>29437</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>59837</v>
+        <v>55929</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>70</v>
@@ -1333,7 +1333,7 @@
         <v>563</v>
       </c>
       <c r="D14" s="7">
-        <v>679149</v>
+        <v>852766</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -1348,7 +1348,7 @@
         <v>971</v>
       </c>
       <c r="I14" s="7">
-        <v>723056</v>
+        <v>665842</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -1363,7 +1363,7 @@
         <v>1534</v>
       </c>
       <c r="N14" s="7">
-        <v>1402205</v>
+        <v>1518606</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -1384,7 +1384,7 @@
         <v>586</v>
       </c>
       <c r="D15" s="7">
-        <v>706929</v>
+        <v>879257</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1399,7 +1399,7 @@
         <v>1013</v>
       </c>
       <c r="I15" s="7">
-        <v>755113</v>
+        <v>695279</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1414,7 @@
         <v>1599</v>
       </c>
       <c r="N15" s="7">
-        <v>1462042</v>
+        <v>1574535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
